--- a/outputs-HGR-r202/test-c__Gammaproteobacteria_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-c__Gammaproteobacteria_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Row</t>
   </si>
@@ -40,21 +40,36 @@
     <t>even_MAG-GUT12361.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12482.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12794.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12944.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12991.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13170.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13480.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT13637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13816.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1384.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13881.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13955.fa</t>
   </si>
   <si>
@@ -70,9 +85,27 @@
     <t>even_MAG-GUT14250.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14532.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14572.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT14827.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15246.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16149.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16156.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT16625.fa</t>
   </si>
   <si>
@@ -82,6 +115,9 @@
     <t>even_MAG-GUT16984.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17271.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17598.fa</t>
   </si>
   <si>
@@ -91,21 +127,42 @@
     <t>even_MAG-GUT18024.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT18195.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18312.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18361.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT1861.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18974.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19408.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19561.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19592.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19599.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT19853.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT2060.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2110.fa</t>
   </si>
   <si>
@@ -124,6 +181,9 @@
     <t>even_MAG-GUT24606.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24616.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT24657.fa</t>
   </si>
   <si>
@@ -145,6 +205,12 @@
     <t>even_MAG-GUT25055.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25075.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25223.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25263.fa</t>
   </si>
   <si>
@@ -163,9 +229,15 @@
     <t>even_MAG-GUT29963.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT30085.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT31546.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT31872.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32354.fa</t>
   </si>
   <si>
@@ -196,6 +268,9 @@
     <t>even_MAG-GUT36009.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT36148.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT36218.fa</t>
   </si>
   <si>
@@ -211,18 +286,30 @@
     <t>even_MAG-GUT37961.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT38016.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38856.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT38999.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39108.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39136.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT39174.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT3922.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT39245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39460.fa</t>
   </si>
   <si>
@@ -238,9 +325,15 @@
     <t>even_MAG-GUT43227.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43254.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4338.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43440.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT44112.fa</t>
   </si>
   <si>
@@ -262,6 +355,9 @@
     <t>even_MAG-GUT47180.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT48773.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT48926.fa</t>
   </si>
   <si>
@@ -274,6 +370,9 @@
     <t>even_MAG-GUT49445.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT49487.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT49542.fa</t>
   </si>
   <si>
@@ -295,15 +394,27 @@
     <t>even_MAG-GUT57416.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57726.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT58179.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT58214.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT60374.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61409.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61735.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61794.fa</t>
   </si>
   <si>
@@ -343,6 +454,9 @@
     <t>even_MAG-GUT68996.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT69662.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7016.fa</t>
   </si>
   <si>
@@ -376,21 +490,39 @@
     <t>even_MAG-GUT78371.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80384.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80449.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80685.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80720.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80804.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81029.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81145.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT81204.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81432.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT8151.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT81523.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT82115.fa</t>
   </si>
   <si>
@@ -413,6 +545,12 @@
   </si>
   <si>
     <t>even_MAG-GUT90995.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91702.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT91898.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT9364.fa</t>
@@ -487,7 +625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F183"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -503,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -663,16 +801,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.99801029917793216</v>
+        <v>0.99989893394274809</v>
       </c>
       <c r="C9">
-        <v>8.9363201091892393e-06</v>
+        <v>2.2415772446896155e-05</v>
       </c>
       <c r="D9">
-        <v>0.0019807644669299664</v>
+        <v>7.8650283787487109e-05</v>
       </c>
       <c r="E9">
-        <v>3.5028657021892241e-11</v>
+        <v>1.0175055884813551e-12</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -683,16 +821,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.99719150139943791</v>
+        <v>0.99801029917793216</v>
       </c>
       <c r="C10">
-        <v>1.5176036513293591e-05</v>
+        <v>8.9363201091892393e-06</v>
       </c>
       <c r="D10">
-        <v>0.0027933225470210391</v>
+        <v>0.0019807644669299664</v>
       </c>
       <c r="E10">
-        <v>1.7027863809638457e-11</v>
+        <v>3.5028657021892241e-11</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -703,16 +841,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.99939905615538238</v>
+        <v>0.99769474557351823</v>
       </c>
       <c r="C11">
-        <v>9.6258779918243742e-05</v>
+        <v>0.00035365397313299123</v>
       </c>
       <c r="D11">
-        <v>0.00050468506111241271</v>
+        <v>0.0019516004464865068</v>
       </c>
       <c r="E11">
-        <v>3.5870546427337818e-12</v>
+        <v>6.8623407646883011e-12</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -723,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.99527744199069812</v>
+        <v>0.99719150139943791</v>
       </c>
       <c r="C12">
-        <v>0.00064201221557519297</v>
+        <v>1.5176036513293591e-05</v>
       </c>
       <c r="D12">
-        <v>0.0040805457859096981</v>
+        <v>0.0027933225470210391</v>
       </c>
       <c r="E12">
-        <v>7.8169105393023304e-12</v>
+        <v>1.7027863809638457e-11</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -743,16 +881,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.97494009412435922</v>
+        <v>0.95500261266370168</v>
       </c>
       <c r="C13">
-        <v>0.0048575036020685964</v>
+        <v>0.030249487725139676</v>
       </c>
       <c r="D13">
-        <v>0.020202310233706562</v>
+        <v>0.014747898301038547</v>
       </c>
       <c r="E13">
-        <v>9.2039865545122673e-08</v>
+        <v>1.3101201842213535e-09</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -763,16 +901,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.99871328996652842</v>
+        <v>0.99939905615538238</v>
       </c>
       <c r="C14">
-        <v>0.00016442164030569805</v>
+        <v>9.6258779918243742e-05</v>
       </c>
       <c r="D14">
-        <v>0.0011222883332855805</v>
+        <v>0.00050468506111241271</v>
       </c>
       <c r="E14">
-        <v>5.9880329648617851e-11</v>
+        <v>3.5870546427337818e-12</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -783,16 +921,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.99252308298911007</v>
+        <v>0.99527744199069812</v>
       </c>
       <c r="C15">
-        <v>0.0006084323102348555</v>
+        <v>0.00064201221557519297</v>
       </c>
       <c r="D15">
-        <v>0.0068684846801273106</v>
+        <v>0.0040805457859096981</v>
       </c>
       <c r="E15">
-        <v>2.0527799239535933e-11</v>
+        <v>7.8169105393023304e-12</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -803,16 +941,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.99527744199069812</v>
+        <v>0.99987311000408785</v>
       </c>
       <c r="C16">
-        <v>0.00064201221557519297</v>
+        <v>2.3167752705132133e-06</v>
       </c>
       <c r="D16">
-        <v>0.0040805457859096981</v>
+        <v>0.00012457321919641078</v>
       </c>
       <c r="E16">
-        <v>7.8169105393023304e-12</v>
+        <v>1.4451429878955462e-12</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -823,16 +961,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.99964506249880758</v>
+        <v>0.97494009412435922</v>
       </c>
       <c r="C17">
-        <v>5.4570275987371561e-05</v>
+        <v>0.0048575036020685964</v>
       </c>
       <c r="D17">
-        <v>0.00030036722321777435</v>
+        <v>0.020202310233706562</v>
       </c>
       <c r="E17">
-        <v>1.9871446195504842e-12</v>
+        <v>9.2039865545122673e-08</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -843,16 +981,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.99823237167638446</v>
+        <v>0.99225586884086459</v>
       </c>
       <c r="C18">
-        <v>2.4310652835337902e-05</v>
+        <v>0.00010818245019328668</v>
       </c>
       <c r="D18">
-        <v>0.0017433176452047716</v>
+        <v>0.007635948697489279</v>
       </c>
       <c r="E18">
-        <v>2.5575608211995597e-11</v>
+        <v>1.1452728190204218e-11</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -863,16 +1001,16 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.99939002415614797</v>
+        <v>0.99871328996652842</v>
       </c>
       <c r="C19">
-        <v>0.00014654609315305236</v>
+        <v>0.00016442164030569805</v>
       </c>
       <c r="D19">
-        <v>0.00046342950908422124</v>
+        <v>0.0011222883332855805</v>
       </c>
       <c r="E19">
-        <v>2.416148373864143e-10</v>
+        <v>5.9880329648617851e-11</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -883,16 +1021,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.99996939446698463</v>
+        <v>0.99252308298911007</v>
       </c>
       <c r="C20">
-        <v>2.9478703153736996e-05</v>
+        <v>0.0006084323102348555</v>
       </c>
       <c r="D20">
-        <v>1.1268140407622943e-06</v>
+        <v>0.0068684846801273106</v>
       </c>
       <c r="E20">
-        <v>1.5820860020904834e-11</v>
+        <v>2.0527799239535933e-11</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -903,16 +1041,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.99978103909026006</v>
+        <v>0.99527744199069812</v>
       </c>
       <c r="C21">
-        <v>5.4541945586969423e-06</v>
+        <v>0.00064201221557519297</v>
       </c>
       <c r="D21">
-        <v>0.00021350671324762567</v>
+        <v>0.0040805457859096981</v>
       </c>
       <c r="E21">
-        <v>1.933720152418143e-12</v>
+        <v>7.8169105393023304e-12</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -923,16 +1061,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.99954804458707347</v>
+        <v>0.99964506249880758</v>
       </c>
       <c r="C22">
-        <v>4.5437462456902659e-05</v>
+        <v>5.4570275987371561e-05</v>
       </c>
       <c r="D22">
-        <v>0.00040651791603806372</v>
+        <v>0.00030036722321777435</v>
       </c>
       <c r="E22">
-        <v>3.4431658635874634e-11</v>
+        <v>1.9871446195504842e-12</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -943,16 +1081,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.99923840555725296</v>
+        <v>0.99823237167638446</v>
       </c>
       <c r="C23">
-        <v>0.00060381506220484452</v>
+        <v>2.4310652835337902e-05</v>
       </c>
       <c r="D23">
-        <v>0.00015774165181876862</v>
+        <v>0.0017433176452047716</v>
       </c>
       <c r="E23">
-        <v>3.7728723301034895e-08</v>
+        <v>2.5575608211995597e-11</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -963,16 +1101,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.99387176597235394</v>
+        <v>0.99581632351270599</v>
       </c>
       <c r="C24">
-        <v>0.00051682748169396865</v>
+        <v>0.00030268993716446959</v>
       </c>
       <c r="D24">
-        <v>0.0056114065309467399</v>
+        <v>0.0038809865385716707</v>
       </c>
       <c r="E24">
-        <v>1.5005300399743054e-11</v>
+        <v>1.1557969807457965e-11</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -983,16 +1121,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.99911593908439889</v>
+        <v>0.9999287595559655</v>
       </c>
       <c r="C25">
-        <v>5.8456697851875357e-05</v>
+        <v>8.0729942143113439e-06</v>
       </c>
       <c r="D25">
-        <v>0.00082560394579455861</v>
+        <v>6.3167445550046361e-05</v>
       </c>
       <c r="E25">
-        <v>2.7195489152031758e-10</v>
+        <v>4.2700436614783608e-12</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1003,16 +1141,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.99753571553588216</v>
+        <v>0.99939002415614797</v>
       </c>
       <c r="C26">
-        <v>0.00015258897897114631</v>
+        <v>0.00014654609315305236</v>
       </c>
       <c r="D26">
-        <v>0.0023116954808762159</v>
+        <v>0.00046342950908422124</v>
       </c>
       <c r="E26">
-        <v>4.2705954978289973e-12</v>
+        <v>2.416148373864143e-10</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1023,16 +1161,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.99437939194147007</v>
+        <v>0.99517826299028922</v>
       </c>
       <c r="C27">
-        <v>0.0005839687906221947</v>
+        <v>0.0012378837143657432</v>
       </c>
       <c r="D27">
-        <v>0.0050366392529425531</v>
+        <v>0.0035838532192262254</v>
       </c>
       <c r="E27">
-        <v>1.4965004071555113e-11</v>
+        <v>7.6118913342516083e-11</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1043,16 +1181,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.99944771268650423</v>
+        <v>0.99885152029708979</v>
       </c>
       <c r="C28">
-        <v>0.00026824340436753158</v>
+        <v>0.0011372823457622924</v>
       </c>
       <c r="D28">
-        <v>0.00028404382875611505</v>
+        <v>1.1196988596425812e-05</v>
       </c>
       <c r="E28">
-        <v>8.0372011893186556e-11</v>
+        <v>3.685512988170524e-10</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1063,16 +1201,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.99872559170894104</v>
+        <v>0.99950469298429867</v>
       </c>
       <c r="C29">
-        <v>0.00012080409828427707</v>
+        <v>1.5556511083379645e-06</v>
       </c>
       <c r="D29">
-        <v>0.0011536041389266863</v>
+        <v>0.00049375136367892525</v>
       </c>
       <c r="E29">
-        <v>5.3848061407707313e-11</v>
+        <v>9.1407213427330069e-13</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1083,16 +1221,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.99988733427721621</v>
+        <v>0.99386179529966967</v>
       </c>
       <c r="C30">
-        <v>6.6533462439748168e-06</v>
+        <v>0.004306913396981491</v>
       </c>
       <c r="D30">
-        <v>0.000106012375642998</v>
+        <v>0.0018312912720476284</v>
       </c>
       <c r="E30">
-        <v>8.9688941545478739e-13</v>
+        <v>3.1301354101488364e-11</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1103,16 +1241,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.99994628670012609</v>
+        <v>0.99996939446698463</v>
       </c>
       <c r="C31">
-        <v>7.2151412342315924e-06</v>
+        <v>2.9478703153736996e-05</v>
       </c>
       <c r="D31">
-        <v>4.6498157827747244e-05</v>
+        <v>1.1268140407622943e-06</v>
       </c>
       <c r="E31">
-        <v>8.1194943381784293e-13</v>
+        <v>1.5820860020904834e-11</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1123,16 +1261,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.99891293931023739</v>
+        <v>0.99978103909026006</v>
       </c>
       <c r="C32">
-        <v>0.00057495903520867267</v>
+        <v>5.4541945586969423e-06</v>
       </c>
       <c r="D32">
-        <v>0.00051210138852286204</v>
+        <v>0.00021350671324762567</v>
       </c>
       <c r="E32">
-        <v>2.6603097905724818e-10</v>
+        <v>1.933720152418143e-12</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1143,16 +1281,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.99967481562989924</v>
+        <v>0.99954804458707347</v>
       </c>
       <c r="C33">
-        <v>0.00024846098733382455</v>
+        <v>4.5437462456902659e-05</v>
       </c>
       <c r="D33">
-        <v>7.6710200180008924e-05</v>
+        <v>0.00040651791603806372</v>
       </c>
       <c r="E33">
-        <v>1.3182586772285066e-08</v>
+        <v>3.4431658635874634e-11</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1163,16 +1301,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.99987394490166448</v>
+        <v>0.98519602779215898</v>
       </c>
       <c r="C34">
-        <v>2.988371213758677e-05</v>
+        <v>0.0032746878271855836</v>
       </c>
       <c r="D34">
-        <v>9.6171380937409097e-05</v>
+        <v>0.011529284323636937</v>
       </c>
       <c r="E34">
-        <v>5.260461003983e-12</v>
+        <v>5.7018494715672301e-11</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1183,16 +1321,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.99984179982869037</v>
+        <v>0.99923840555725296</v>
       </c>
       <c r="C35">
-        <v>2.1338628287772748e-05</v>
+        <v>0.00060381506220484452</v>
       </c>
       <c r="D35">
-        <v>0.00013686154264100865</v>
+        <v>0.00015774165181876862</v>
       </c>
       <c r="E35">
-        <v>3.8088566314607928e-13</v>
+        <v>3.7728723301034895e-08</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1203,16 +1341,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.99986320790119698</v>
+        <v>0.99387176597235394</v>
       </c>
       <c r="C36">
-        <v>4.0424109435371739e-06</v>
+        <v>0.00051682748169396865</v>
       </c>
       <c r="D36">
-        <v>0.00013274968729570455</v>
+        <v>0.0056114065309467399</v>
       </c>
       <c r="E36">
-        <v>5.6374424981752782e-13</v>
+        <v>1.5005300399743054e-11</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1223,16 +1361,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.99909160430405408</v>
+        <v>0.99911593908439889</v>
       </c>
       <c r="C37">
-        <v>1.2667416459221076e-05</v>
+        <v>5.8456697851875357e-05</v>
       </c>
       <c r="D37">
-        <v>0.00089572544486604146</v>
+        <v>0.00082560394579455861</v>
       </c>
       <c r="E37">
-        <v>2.8346206013599553e-09</v>
+        <v>2.7195489152031758e-10</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1243,16 +1381,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.82506910350777107</v>
+        <v>0.99942070447950748</v>
       </c>
       <c r="C38">
-        <v>0.050389966604987166</v>
+        <v>0.00039571088474762739</v>
       </c>
       <c r="D38">
-        <v>0.12454079719536688</v>
+        <v>0.00018358460534346642</v>
       </c>
       <c r="E38">
-        <v>1.3269187476052134e-07</v>
+        <v>3.0401483972224474e-11</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1263,16 +1401,16 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.99865386748969565</v>
+        <v>0.99977373262570612</v>
       </c>
       <c r="C39">
-        <v>7.6432605109843118e-06</v>
+        <v>0.00019740710502294461</v>
       </c>
       <c r="D39">
-        <v>0.0013384892478935707</v>
+        <v>2.8860220318220808e-05</v>
       </c>
       <c r="E39">
-        <v>1.8998275874510592e-12</v>
+        <v>4.8952646717830352e-11</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1283,16 +1421,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.99981462645534835</v>
+        <v>0.98896089309381818</v>
       </c>
       <c r="C40">
-        <v>2.9115258265055035e-05</v>
+        <v>0.0005718412657746999</v>
       </c>
       <c r="D40">
-        <v>0.00015625828593264141</v>
+        <v>0.010467265625984193</v>
       </c>
       <c r="E40">
-        <v>4.5402877388873478e-13</v>
+        <v>1.442296210887795e-11</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1303,16 +1441,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.99997851901169088</v>
+        <v>0.99753571553588216</v>
       </c>
       <c r="C41">
-        <v>5.5426503514711018e-07</v>
+        <v>0.00015258897897114631</v>
       </c>
       <c r="D41">
-        <v>2.0926722006642189e-05</v>
+        <v>0.0023116954808762159</v>
       </c>
       <c r="E41">
-        <v>1.267190573852075e-12</v>
+        <v>4.2705954978289973e-12</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1323,19 +1461,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.99955701807075104</v>
+        <v>0.00019396707687652191</v>
       </c>
       <c r="C42">
-        <v>3.1192902204630376e-05</v>
+        <v>0.99979607099950096</v>
       </c>
       <c r="D42">
-        <v>0.00041178876532607677</v>
+        <v>9.960360821522635e-06</v>
       </c>
       <c r="E42">
-        <v>2.6171796403757012e-10</v>
+        <v>1.5628009922613163e-09</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1343,16 +1481,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.99997396019749163</v>
+        <v>0.99437939194147007</v>
       </c>
       <c r="C43">
-        <v>3.2685554770495435e-06</v>
+        <v>0.0005839687906221947</v>
       </c>
       <c r="D43">
-        <v>2.2771245390037814e-05</v>
+        <v>0.0050366392529425531</v>
       </c>
       <c r="E43">
-        <v>1.6414054841355646e-12</v>
+        <v>1.4965004071555113e-11</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1363,16 +1501,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.99497537153308369</v>
+        <v>0.99230099823836693</v>
       </c>
       <c r="C44">
-        <v>0.00017898959748699304</v>
+        <v>0.0035997094023143693</v>
       </c>
       <c r="D44">
-        <v>0.0048456388291468555</v>
+        <v>0.0040992923357889184</v>
       </c>
       <c r="E44">
-        <v>4.0282403142615418e-11</v>
+        <v>2.3529725865391844e-11</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1383,16 +1521,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.99811655765129792</v>
+        <v>0.99944771268650423</v>
       </c>
       <c r="C45">
-        <v>2.0291152961680996e-05</v>
+        <v>0.00026824340436753158</v>
       </c>
       <c r="D45">
-        <v>0.0018631511686965983</v>
+        <v>0.00028404382875611505</v>
       </c>
       <c r="E45">
-        <v>2.7043762138931028e-11</v>
+        <v>8.0372011893186556e-11</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1403,16 +1541,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.99933338338452482</v>
+        <v>0.98204953244054261</v>
       </c>
       <c r="C46">
-        <v>0.00052288123826677545</v>
+        <v>0.015600424309170743</v>
       </c>
       <c r="D46">
-        <v>0.00014373523802704819</v>
+        <v>0.0023500431880700903</v>
       </c>
       <c r="E46">
-        <v>1.3918133677747965e-10</v>
+        <v>6.2216580916689771e-11</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1423,16 +1561,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.99967883628530174</v>
+        <v>0.99872559170894104</v>
       </c>
       <c r="C47">
-        <v>1.3050040012492015e-05</v>
+        <v>0.00012080409828427707</v>
       </c>
       <c r="D47">
-        <v>0.00030811367363997843</v>
+        <v>0.0011536041389266863</v>
       </c>
       <c r="E47">
-        <v>1.0457055153421423e-12</v>
+        <v>5.3848061407707313e-11</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1443,16 +1581,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.99938960016519962</v>
+        <v>0.99988733427721621</v>
       </c>
       <c r="C48">
-        <v>0.00014756846894623194</v>
+        <v>6.6533462439748168e-06</v>
       </c>
       <c r="D48">
-        <v>0.00046283129334228208</v>
+        <v>0.000106012375642998</v>
       </c>
       <c r="E48">
-        <v>7.2511736019039356e-11</v>
+        <v>8.9688941545478739e-13</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1463,19 +1601,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.99969476433325588</v>
+        <v>0.0020970493795715211</v>
       </c>
       <c r="C49">
-        <v>0.00011701274477333919</v>
+        <v>0.9978711693944331</v>
       </c>
       <c r="D49">
-        <v>0.00018822191985088096</v>
+        <v>3.1771262695710587e-05</v>
       </c>
       <c r="E49">
-        <v>1.0021198108727707e-09</v>
+        <v>9.9632997572114351e-09</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1483,16 +1621,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.99626843934955889</v>
+        <v>0.99994628670012609</v>
       </c>
       <c r="C50">
-        <v>5.7623844336967314e-05</v>
+        <v>7.2151412342315924e-06</v>
       </c>
       <c r="D50">
-        <v>0.0036739367930724242</v>
+        <v>4.6498157827747244e-05</v>
       </c>
       <c r="E50">
-        <v>1.3031746304185464e-11</v>
+        <v>8.1194943381784293e-13</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1503,16 +1641,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.99969406623009627</v>
+        <v>0.99891293931023739</v>
       </c>
       <c r="C51">
-        <v>0.0001386322784278803</v>
+        <v>0.00057495903520867267</v>
       </c>
       <c r="D51">
-        <v>0.00016730148886125661</v>
+        <v>0.00051210138852286204</v>
       </c>
       <c r="E51">
-        <v>2.614624904609508e-12</v>
+        <v>2.6603097905724818e-10</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1523,16 +1661,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.98997358316146233</v>
+        <v>0.99967481562989924</v>
       </c>
       <c r="C52">
-        <v>6.6801118240369847e-05</v>
+        <v>0.00024846098733382455</v>
       </c>
       <c r="D52">
-        <v>0.0099596157171517388</v>
+        <v>7.6710200180008924e-05</v>
       </c>
       <c r="E52">
-        <v>3.1456209273517312e-12</v>
+        <v>1.3182586772285066e-08</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1543,16 +1681,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.99970153153047514</v>
+        <v>0.99987394490166448</v>
       </c>
       <c r="C53">
-        <v>0.00014809357932497638</v>
+        <v>2.988371213758677e-05</v>
       </c>
       <c r="D53">
-        <v>0.00015037464584699477</v>
+        <v>9.6171380937409097e-05</v>
       </c>
       <c r="E53">
-        <v>2.4435298068853576e-10</v>
+        <v>5.260461003983e-12</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1563,16 +1701,16 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.99607544084106858</v>
+        <v>0.99984179982869037</v>
       </c>
       <c r="C54">
-        <v>1.5126261796053816e-05</v>
+        <v>2.1338628287772748e-05</v>
       </c>
       <c r="D54">
-        <v>0.0039094326573539335</v>
+        <v>0.00013686154264100865</v>
       </c>
       <c r="E54">
-        <v>2.3978122861823281e-10</v>
+        <v>3.8088566314607928e-13</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1583,16 +1721,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.99754927062580889</v>
+        <v>0.99986320790119698</v>
       </c>
       <c r="C55">
-        <v>3.3024290464873156e-05</v>
+        <v>4.0424109435371739e-06</v>
       </c>
       <c r="D55">
-        <v>0.0024177046988867975</v>
+        <v>0.00013274968729570455</v>
       </c>
       <c r="E55">
-        <v>3.8483936851634628e-10</v>
+        <v>5.6374424981752782e-13</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1603,16 +1741,16 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.86124468753253625</v>
+        <v>0.99993251171671194</v>
       </c>
       <c r="C56">
-        <v>0.049677143718992442</v>
+        <v>6.0841765220043049e-06</v>
       </c>
       <c r="D56">
-        <v>0.089076882724461862</v>
+        <v>6.1404104154752772e-05</v>
       </c>
       <c r="E56">
-        <v>1.2860240093123165e-06</v>
+        <v>2.6112123064006346e-12</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -1623,16 +1761,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.99708954154100649</v>
+        <v>0.99909160430405408</v>
       </c>
       <c r="C57">
-        <v>1.3276495735942637e-05</v>
+        <v>1.2667416459221076e-05</v>
       </c>
       <c r="D57">
-        <v>0.0028971817604606033</v>
+        <v>0.00089572544486604146</v>
       </c>
       <c r="E57">
-        <v>2.0279703587004965e-10</v>
+        <v>2.8346206013599553e-09</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -1643,16 +1781,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.99894851441411436</v>
+        <v>0.82506910350777107</v>
       </c>
       <c r="C58">
-        <v>0.0004627960445719501</v>
+        <v>0.050389966604987166</v>
       </c>
       <c r="D58">
-        <v>0.00058868943464823937</v>
+        <v>0.12454079719536688</v>
       </c>
       <c r="E58">
-        <v>1.0666539917663337e-10</v>
+        <v>1.3269187476052134e-07</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1663,16 +1801,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.99959404415567665</v>
+        <v>0.99865386748969565</v>
       </c>
       <c r="C59">
-        <v>0.00012829287727989728</v>
+        <v>7.6432605109843118e-06</v>
       </c>
       <c r="D59">
-        <v>0.00027766256930546862</v>
+        <v>0.0013384892478935707</v>
       </c>
       <c r="E59">
-        <v>3.9773804199562686e-10</v>
+        <v>1.8998275874510592e-12</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1683,16 +1821,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.97955713304948766</v>
+        <v>0.99981462645534835</v>
       </c>
       <c r="C60">
-        <v>0.006192252659584732</v>
+        <v>2.9115258265055035e-05</v>
       </c>
       <c r="D60">
-        <v>0.014250405383608949</v>
+        <v>0.00015625828593264141</v>
       </c>
       <c r="E60">
-        <v>2.0890731868925357e-07</v>
+        <v>4.5402877388873478e-13</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1703,16 +1841,16 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.99912814981521991</v>
+        <v>0.99997851901169088</v>
       </c>
       <c r="C61">
-        <v>0.00050556836479975591</v>
+        <v>5.5426503514711018e-07</v>
       </c>
       <c r="D61">
-        <v>0.0003662815183899026</v>
+        <v>2.0926722006642189e-05</v>
       </c>
       <c r="E61">
-        <v>3.0159055438939412e-10</v>
+        <v>1.267190573852075e-12</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1723,16 +1861,16 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.99974434167073656</v>
+        <v>0.99955701807075104</v>
       </c>
       <c r="C62">
-        <v>6.9079280214055334e-06</v>
+        <v>3.1192902204630376e-05</v>
       </c>
       <c r="D62">
-        <v>0.00024875039841660001</v>
+        <v>0.00041178876532607677</v>
       </c>
       <c r="E62">
-        <v>2.8254167623112922e-12</v>
+        <v>2.6171796403757012e-10</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -1743,16 +1881,16 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.99950510046901175</v>
+        <v>0.99997396019749163</v>
       </c>
       <c r="C63">
-        <v>0.00016739289292875702</v>
+        <v>3.2685554770495435e-06</v>
       </c>
       <c r="D63">
-        <v>0.00032750631041459261</v>
+        <v>2.2771245390037814e-05</v>
       </c>
       <c r="E63">
-        <v>3.2764488099511016e-10</v>
+        <v>1.6414054841355646e-12</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -1763,16 +1901,16 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.99966564463903718</v>
+        <v>0.9996874245076609</v>
       </c>
       <c r="C64">
-        <v>3.5476036393123016e-05</v>
+        <v>9.3125099027093045e-05</v>
       </c>
       <c r="D64">
-        <v>0.00029887932410250709</v>
+        <v>0.00021945030364475208</v>
       </c>
       <c r="E64">
-        <v>4.6709506667701913e-13</v>
+        <v>8.9667287793629705e-11</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -1783,16 +1921,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.99852818341240523</v>
+        <v>0.9933585573254603</v>
       </c>
       <c r="C65">
-        <v>0.00091967023716636287</v>
+        <v>8.6132888977109422e-05</v>
       </c>
       <c r="D65">
-        <v>0.00055213959328899713</v>
+        <v>0.0065553097772712522</v>
       </c>
       <c r="E65">
-        <v>6.7571393852490895e-09</v>
+        <v>8.2912675885314925e-12</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -1803,16 +1941,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.99891930598787226</v>
+        <v>0.99497537153308369</v>
       </c>
       <c r="C66">
-        <v>0.00061613281848538258</v>
+        <v>0.00017898959748699304</v>
       </c>
       <c r="D66">
-        <v>0.00046455999492215906</v>
+        <v>0.0048456388291468555</v>
       </c>
       <c r="E66">
-        <v>1.1987203428691777e-09</v>
+        <v>4.0282403142615418e-11</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1823,16 +1961,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.99391481235164991</v>
+        <v>0.99811655765129792</v>
       </c>
       <c r="C67">
-        <v>0.00019469916461651982</v>
+        <v>2.0291152961680996e-05</v>
       </c>
       <c r="D67">
-        <v>0.0058904884490017673</v>
+        <v>0.0018631511686965983</v>
       </c>
       <c r="E67">
-        <v>3.4731888771882397e-11</v>
+        <v>2.7043762138931028e-11</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1843,16 +1981,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.99917192829798762</v>
+        <v>0.99933338338452482</v>
       </c>
       <c r="C68">
-        <v>5.8937986549181095e-05</v>
+        <v>0.00052288123826677545</v>
       </c>
       <c r="D68">
-        <v>0.00076913338640249352</v>
+        <v>0.00014373523802704819</v>
       </c>
       <c r="E68">
-        <v>3.2906063970452313e-10</v>
+        <v>1.3918133677747965e-10</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -1863,16 +2001,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.99921835384098789</v>
+        <v>0.99967883628530174</v>
       </c>
       <c r="C69">
-        <v>0.00028002795769105474</v>
+        <v>1.3050040012492015e-05</v>
       </c>
       <c r="D69">
-        <v>0.00050161807319305579</v>
+        <v>0.00030811367363997843</v>
       </c>
       <c r="E69">
-        <v>1.2812817094025679e-10</v>
+        <v>1.0457055153421423e-12</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -1883,16 +2021,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.99982678115225954</v>
+        <v>0.99938960016519962</v>
       </c>
       <c r="C70">
-        <v>7.5144852254012816e-05</v>
+        <v>0.00014756846894623194</v>
       </c>
       <c r="D70">
-        <v>9.807399485969607e-05</v>
+        <v>0.00046283129334228208</v>
       </c>
       <c r="E70">
-        <v>6.2675274810885116e-13</v>
+        <v>7.2511736019039356e-11</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -1903,16 +2041,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.99924823532155505</v>
+        <v>0.99969476433325588</v>
       </c>
       <c r="C71">
-        <v>1.0702215524242345e-05</v>
+        <v>0.00011701274477333919</v>
       </c>
       <c r="D71">
-        <v>0.00074106246012900241</v>
+        <v>0.00018822191985088096</v>
       </c>
       <c r="E71">
-        <v>2.7918400706234164e-12</v>
+        <v>1.0021198108727707e-09</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1923,16 +2061,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.99994187193333162</v>
+        <v>0.99998771720720647</v>
       </c>
       <c r="C72">
-        <v>3.233547176592567e-05</v>
+        <v>4.0198925485537663e-06</v>
       </c>
       <c r="D72">
-        <v>2.5792592711743533e-05</v>
+        <v>8.2628802110805516e-06</v>
       </c>
       <c r="E72">
-        <v>2.1907219360611077e-12</v>
+        <v>2.0033900328668077e-11</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -1943,16 +2081,16 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.99985987730682679</v>
+        <v>0.99626843934955889</v>
       </c>
       <c r="C73">
-        <v>3.3146374755080528e-05</v>
+        <v>5.7623844336967314e-05</v>
       </c>
       <c r="D73">
-        <v>0.00010697631139395028</v>
+        <v>0.0036739367930724242</v>
       </c>
       <c r="E73">
-        <v>7.0241850558040624e-12</v>
+        <v>1.3031746304185464e-11</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -1963,16 +2101,16 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.99506391522973758</v>
+        <v>0.99092697404732832</v>
       </c>
       <c r="C74">
-        <v>0.0015653711784314444</v>
+        <v>0.0012174644216817975</v>
       </c>
       <c r="D74">
-        <v>0.0033707135374412738</v>
+        <v>0.0078555615101209234</v>
       </c>
       <c r="E74">
-        <v>5.4389751863758789e-11</v>
+        <v>2.0868907430282191e-11</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -1983,16 +2121,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.99819473113840118</v>
+        <v>0.99969406623009627</v>
       </c>
       <c r="C75">
-        <v>0.00011203283766776537</v>
+        <v>0.0001386322784278803</v>
       </c>
       <c r="D75">
-        <v>0.0016932359070758304</v>
+        <v>0.00016730148886125661</v>
       </c>
       <c r="E75">
-        <v>1.1685514027557893e-10</v>
+        <v>2.614624904609508e-12</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -2003,16 +2141,16 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.96372848029505487</v>
+        <v>0.98997358316146233</v>
       </c>
       <c r="C76">
-        <v>0.0026639384978099198</v>
+        <v>6.6801118240369847e-05</v>
       </c>
       <c r="D76">
-        <v>0.033607422774147341</v>
+        <v>0.0099596157171517388</v>
       </c>
       <c r="E76">
-        <v>1.5843298791548163e-07</v>
+        <v>3.1456209273517312e-12</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2023,16 +2161,16 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.87681459582723686</v>
+        <v>0.99970153153047514</v>
       </c>
       <c r="C77">
-        <v>0.0091263287723196713</v>
+        <v>0.00014809357932497638</v>
       </c>
       <c r="D77">
-        <v>0.11405822998384221</v>
+        <v>0.00015037464584699477</v>
       </c>
       <c r="E77">
-        <v>8.4541660105038508e-07</v>
+        <v>2.4435298068853576e-10</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2043,16 +2181,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.99989641042053035</v>
+        <v>0.99607544084106858</v>
       </c>
       <c r="C78">
-        <v>9.3506472169924953e-05</v>
+        <v>1.5126261796053816e-05</v>
       </c>
       <c r="D78">
-        <v>1.0083106197711125e-05</v>
+        <v>0.0039094326573539335</v>
       </c>
       <c r="E78">
-        <v>1.1019332802405131e-12</v>
+        <v>2.3978122861823281e-10</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2063,16 +2201,16 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.99987539039473461</v>
+        <v>0.99754927062580889</v>
       </c>
       <c r="C79">
-        <v>2.2932320508141633e-06</v>
+        <v>3.3024290464873156e-05</v>
       </c>
       <c r="D79">
-        <v>0.00012231637128818355</v>
+        <v>0.0024177046988867975</v>
       </c>
       <c r="E79">
-        <v>1.9263179587880386e-12</v>
+        <v>3.8483936851634628e-10</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2083,16 +2221,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.97147113447663647</v>
+        <v>0.86124468753253625</v>
       </c>
       <c r="C80">
-        <v>0.00053565977919405733</v>
+        <v>0.049677143718992442</v>
       </c>
       <c r="D80">
-        <v>0.027993159513200097</v>
+        <v>0.089076882724461862</v>
       </c>
       <c r="E80">
-        <v>4.6230969372181392e-08</v>
+        <v>1.2860240093123165e-06</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2103,16 +2241,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.81447102418183936</v>
+        <v>0.99708954154100649</v>
       </c>
       <c r="C81">
-        <v>0.03761929421874833</v>
+        <v>1.3276495735942637e-05</v>
       </c>
       <c r="D81">
-        <v>0.14790867871700808</v>
+        <v>0.0028971817604606033</v>
       </c>
       <c r="E81">
-        <v>1.002882404242285e-06</v>
+        <v>2.0279703587004965e-10</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2123,16 +2261,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.99876238744080437</v>
+        <v>0.99894851441411436</v>
       </c>
       <c r="C82">
-        <v>0.0005752166660369653</v>
+        <v>0.0004627960445719501</v>
       </c>
       <c r="D82">
-        <v>0.00066239573582611312</v>
+        <v>0.00058868943464823937</v>
       </c>
       <c r="E82">
-        <v>1.5733261697395771e-10</v>
+        <v>1.0666539917663337e-10</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2143,16 +2281,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.91411716828263934</v>
+        <v>0.99959404415567665</v>
       </c>
       <c r="C83">
-        <v>0.054286395348603696</v>
+        <v>0.00012829287727989728</v>
       </c>
       <c r="D83">
-        <v>0.031595845870734322</v>
+        <v>0.00027766256930546862</v>
       </c>
       <c r="E83">
-        <v>5.9049802261811247e-07</v>
+        <v>3.9773804199562686e-10</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -2163,16 +2301,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.85491873728989809</v>
+        <v>0.97955713304948766</v>
       </c>
       <c r="C84">
-        <v>0.027594925208374688</v>
+        <v>0.006192252659584732</v>
       </c>
       <c r="D84">
-        <v>0.11748522827101485</v>
+        <v>0.014250405383608949</v>
       </c>
       <c r="E84">
-        <v>1.1092307122785607e-06</v>
+        <v>2.0890731868925357e-07</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -2183,16 +2321,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.91644356631821766</v>
+        <v>0.99698404562750298</v>
       </c>
       <c r="C85">
-        <v>0.018557587214945267</v>
+        <v>0.0001033457227918321</v>
       </c>
       <c r="D85">
-        <v>0.064997540399169149</v>
+        <v>0.0029126086401311856</v>
       </c>
       <c r="E85">
-        <v>1.3060676680537962e-06</v>
+        <v>9.5740238723427884e-12</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -2203,16 +2341,16 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.80233268507981936</v>
+        <v>0.99912814981521991</v>
       </c>
       <c r="C86">
-        <v>0.10308662373974323</v>
+        <v>0.00050556836479975591</v>
       </c>
       <c r="D86">
-        <v>0.094577252192072664</v>
+        <v>0.0003662815183899026</v>
       </c>
       <c r="E86">
-        <v>3.4389883647974355e-06</v>
+        <v>3.0159055438939412e-10</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -2223,16 +2361,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.95175034805889114</v>
+        <v>0.99974434167073656</v>
       </c>
       <c r="C87">
-        <v>0.0042835431334805</v>
+        <v>6.9079280214055334e-06</v>
       </c>
       <c r="D87">
-        <v>0.043965562128380355</v>
+        <v>0.00024875039841660001</v>
       </c>
       <c r="E87">
-        <v>5.4667924806681279e-07</v>
+        <v>2.8254167623112922e-12</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -2243,16 +2381,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.99973563957871703</v>
+        <v>0.99950510046901175</v>
       </c>
       <c r="C88">
-        <v>0.00026425827049032156</v>
+        <v>0.00016739289292875702</v>
       </c>
       <c r="D88">
-        <v>1.0210802825939336e-07</v>
+        <v>0.00032750631041459261</v>
       </c>
       <c r="E88">
-        <v>4.2764573658699399e-11</v>
+        <v>3.2764488099511016e-10</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -2263,16 +2401,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.99760337720022807</v>
+        <v>0.99966564463903718</v>
       </c>
       <c r="C89">
-        <v>0.00095188278588733864</v>
+        <v>3.5476036393123016e-05</v>
       </c>
       <c r="D89">
-        <v>0.0014447400007966335</v>
+        <v>0.00029887932410250709</v>
       </c>
       <c r="E89">
-        <v>1.3088079405216323e-11</v>
+        <v>4.6709506667701913e-13</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -2283,16 +2421,16 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.99894470088530085</v>
+        <v>0.99852818341240523</v>
       </c>
       <c r="C90">
-        <v>2.6371195851021584e-05</v>
+        <v>0.00091967023716636287</v>
       </c>
       <c r="D90">
-        <v>0.0010289279165979518</v>
+        <v>0.00055213959328899713</v>
       </c>
       <c r="E90">
-        <v>2.2501144594797844e-12</v>
+        <v>6.7571393852490895e-09</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -2303,16 +2441,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.99964897689739929</v>
+        <v>0.99901579265800178</v>
       </c>
       <c r="C91">
-        <v>1.0020144134284241e-05</v>
+        <v>0.00085527465670150237</v>
       </c>
       <c r="D91">
-        <v>0.00034100295521622526</v>
+        <v>0.00012893262975495034</v>
       </c>
       <c r="E91">
-        <v>3.2502744618540032e-12</v>
+        <v>5.5541766582944164e-11</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -2323,16 +2461,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.99907020503161925</v>
+        <v>0.99891930598787226</v>
       </c>
       <c r="C92">
-        <v>5.1889305705381749e-05</v>
+        <v>0.00061613281848538258</v>
       </c>
       <c r="D92">
-        <v>0.00087790565160545027</v>
+        <v>0.00046455999492215906</v>
       </c>
       <c r="E92">
-        <v>1.106999168309412e-11</v>
+        <v>1.1987203428691777e-09</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -2343,16 +2481,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.99621737924398646</v>
+        <v>0.99391481235164991</v>
       </c>
       <c r="C93">
-        <v>2.5395340899028719e-05</v>
+        <v>0.00019469916461651982</v>
       </c>
       <c r="D93">
-        <v>0.0037572246993394847</v>
+        <v>0.0058904884490017673</v>
       </c>
       <c r="E93">
-        <v>7.157750433236448e-10</v>
+        <v>3.4731888771882397e-11</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -2363,16 +2501,16 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.99917986044378293</v>
+        <v>0.99999992864017906</v>
       </c>
       <c r="C94">
-        <v>1.4491334806676111e-05</v>
+        <v>2.4795346827425398e-09</v>
       </c>
       <c r="D94">
-        <v>0.00080564822049343694</v>
+        <v>6.7633835882102658e-08</v>
       </c>
       <c r="E94">
-        <v>9.1699446359154284e-13</v>
+        <v>1.2464504023720547e-09</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -2383,16 +2521,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.99876480191890826</v>
+        <v>0.99917192829798762</v>
       </c>
       <c r="C95">
-        <v>2.0772051073701109e-05</v>
+        <v>5.8937986549181095e-05</v>
       </c>
       <c r="D95">
-        <v>0.0012144259387818232</v>
+        <v>0.00076913338640249352</v>
       </c>
       <c r="E95">
-        <v>9.1236005424642267e-11</v>
+        <v>3.2906063970452313e-10</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2403,16 +2541,16 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.99103603179203215</v>
+        <v>0.99921835384098789</v>
       </c>
       <c r="C96">
-        <v>0.0042106961451865849</v>
+        <v>0.00028002795769105474</v>
       </c>
       <c r="D96">
-        <v>0.0047532719204413905</v>
+        <v>0.00050161807319305579</v>
       </c>
       <c r="E96">
-        <v>1.4233989457413983e-10</v>
+        <v>1.2812817094025679e-10</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2423,16 +2561,16 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.99983372089307965</v>
+        <v>0.99999990543578454</v>
       </c>
       <c r="C97">
-        <v>2.9864547804850578e-05</v>
+        <v>1.1903867912502031e-09</v>
       </c>
       <c r="D97">
-        <v>0.00013641455438895766</v>
+        <v>9.2748420828657632e-08</v>
       </c>
       <c r="E97">
-        <v>4.726484099885344e-12</v>
+        <v>6.2540794977365514e-10</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -2443,16 +2581,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.99928747182061517</v>
+        <v>0.99225436106033582</v>
       </c>
       <c r="C98">
-        <v>3.0828439104365055e-05</v>
+        <v>0.0069183953074661931</v>
       </c>
       <c r="D98">
-        <v>0.0006816997382799127</v>
+        <v>0.00082724359704335277</v>
       </c>
       <c r="E98">
-        <v>2.0006110101469923e-12</v>
+        <v>3.5154483306124409e-11</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -2463,16 +2601,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.99783560164263496</v>
+        <v>0.99982678115225954</v>
       </c>
       <c r="C99">
-        <v>6.9182698941818826e-05</v>
+        <v>7.5144852254012816e-05</v>
       </c>
       <c r="D99">
-        <v>0.0020952156355430545</v>
+        <v>9.807399485969607e-05</v>
       </c>
       <c r="E99">
-        <v>2.2880133743129713e-11</v>
+        <v>6.2675274810885116e-13</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2483,16 +2621,16 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.99998563024312981</v>
+        <v>0.99924823532155505</v>
       </c>
       <c r="C100">
-        <v>4.2540860981850875e-06</v>
+        <v>1.0702215524242345e-05</v>
       </c>
       <c r="D100">
-        <v>1.0115667765508511e-05</v>
+        <v>0.00074106246012900241</v>
       </c>
       <c r="E100">
-        <v>3.0064559477017915e-12</v>
+        <v>2.7918400706234164e-12</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2503,16 +2641,16 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.99974507768854182</v>
+        <v>0.99994187193333162</v>
       </c>
       <c r="C101">
-        <v>5.5392920417859822e-05</v>
+        <v>3.233547176592567e-05</v>
       </c>
       <c r="D101">
-        <v>0.00019952938856452872</v>
+        <v>2.5792592711743533e-05</v>
       </c>
       <c r="E101">
-        <v>2.4759773949746514e-12</v>
+        <v>2.1907219360611077e-12</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -2523,16 +2661,16 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.99957906685761866</v>
+        <v>0.99985987730682679</v>
       </c>
       <c r="C102">
-        <v>5.1204001615521606e-05</v>
+        <v>3.3146374755080528e-05</v>
       </c>
       <c r="D102">
-        <v>0.00036972863618341193</v>
+        <v>0.00010697631139395028</v>
       </c>
       <c r="E102">
-        <v>5.0458230423990897e-10</v>
+        <v>7.0241850558040624e-12</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2543,16 +2681,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.99958288514941684</v>
+        <v>0.99506391522973758</v>
       </c>
       <c r="C103">
-        <v>9.0261710599433837e-05</v>
+        <v>0.0015653711784314444</v>
       </c>
       <c r="D103">
-        <v>0.0003268531346895258</v>
+        <v>0.0033707135374412738</v>
       </c>
       <c r="E103">
-        <v>5.2942771769040816e-12</v>
+        <v>5.4389751863758789e-11</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2563,16 +2701,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.99961396971386274</v>
+        <v>0.99728846774079583</v>
       </c>
       <c r="C104">
-        <v>0.00020007967335862299</v>
+        <v>0.0013674810293929215</v>
       </c>
       <c r="D104">
-        <v>0.00018595055395182248</v>
+        <v>0.0013440512118019102</v>
       </c>
       <c r="E104">
-        <v>5.8826853700795329e-11</v>
+        <v>1.8009464220972068e-11</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2583,16 +2721,16 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.99967732235384288</v>
+        <v>0.99819473113840118</v>
       </c>
       <c r="C105">
-        <v>0.00011220502814557916</v>
+        <v>0.00011203283766776537</v>
       </c>
       <c r="D105">
-        <v>0.00021047261499494133</v>
+        <v>0.0016932359070758304</v>
       </c>
       <c r="E105">
-        <v>3.016454185994035e-12</v>
+        <v>1.1685514027557893e-10</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -2603,19 +2741,19 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.9946816599487408</v>
+        <v>0.001645791884912294</v>
       </c>
       <c r="C106">
-        <v>0.0023261790761215212</v>
+        <v>0.99834228260389857</v>
       </c>
       <c r="D106">
-        <v>0.0029921608094153037</v>
+        <v>1.1922181429031853e-05</v>
       </c>
       <c r="E106">
-        <v>1.6572237719985942e-10</v>
+        <v>3.3297600209209663e-09</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2623,16 +2761,16 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.93671941566720773</v>
+        <v>0.96372848029505487</v>
       </c>
       <c r="C107">
-        <v>0.017630987340300556</v>
+        <v>0.0026639384978099198</v>
       </c>
       <c r="D107">
-        <v>0.045649313781214007</v>
+        <v>0.033607422774147341</v>
       </c>
       <c r="E107">
-        <v>2.8321127771004509e-07</v>
+        <v>1.5843298791548163e-07</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2643,16 +2781,16 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.76535539713897849</v>
+        <v>0.87681459582723686</v>
       </c>
       <c r="C108">
-        <v>0.12406037070344363</v>
+        <v>0.0091263287723196713</v>
       </c>
       <c r="D108">
-        <v>0.11058079340610355</v>
+        <v>0.11405822998384221</v>
       </c>
       <c r="E108">
-        <v>3.4387514742203361e-06</v>
+        <v>8.4541660105038508e-07</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2663,16 +2801,16 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.99985041277565834</v>
+        <v>0.99989641042053035</v>
       </c>
       <c r="C109">
-        <v>2.658554479523021e-05</v>
+        <v>9.3506472169924953e-05</v>
       </c>
       <c r="D109">
-        <v>0.00012300167822890229</v>
+        <v>1.0083106197711125e-05</v>
       </c>
       <c r="E109">
-        <v>1.3176336264958275e-12</v>
+        <v>1.1019332802405131e-12</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2683,16 +2821,16 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.99998586937697531</v>
+        <v>0.99987539039473461</v>
       </c>
       <c r="C110">
-        <v>3.9128738719281244e-07</v>
+        <v>2.2932320508141633e-06</v>
       </c>
       <c r="D110">
-        <v>1.3739333710818214e-05</v>
+        <v>0.00012231637128818355</v>
       </c>
       <c r="E110">
-        <v>1.9267491098032599e-12</v>
+        <v>1.9263179587880386e-12</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -2703,16 +2841,16 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.99912541481687311</v>
+        <v>0.97147113447663647</v>
       </c>
       <c r="C111">
-        <v>0.0002475472706226979</v>
+        <v>0.00053565977919405733</v>
       </c>
       <c r="D111">
-        <v>0.00062703789072249294</v>
+        <v>0.027993159513200097</v>
       </c>
       <c r="E111">
-        <v>2.1781579881853572e-11</v>
+        <v>4.6230969372181392e-08</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2723,16 +2861,16 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.99943257982210909</v>
+        <v>0.81447102418183936</v>
       </c>
       <c r="C112">
-        <v>0.00030782100969373681</v>
+        <v>0.03761929421874833</v>
       </c>
       <c r="D112">
-        <v>0.00025959905208233899</v>
+        <v>0.14790867871700808</v>
       </c>
       <c r="E112">
-        <v>1.1611480939872032e-10</v>
+        <v>1.002882404242285e-06</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -2743,16 +2881,16 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.99994721602873438</v>
+        <v>0.99876238744080437</v>
       </c>
       <c r="C113">
-        <v>1.8184669947746233e-05</v>
+        <v>0.0005752166660369653</v>
       </c>
       <c r="D113">
-        <v>3.4599300762157806e-05</v>
+        <v>0.00066239573582611312</v>
       </c>
       <c r="E113">
-        <v>5.5577353193141536e-13</v>
+        <v>1.5733261697395771e-10</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -2763,16 +2901,16 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.29826253289415622</v>
+        <v>1.5595486195141194e-05</v>
       </c>
       <c r="C114">
-        <v>0.47856957072455225</v>
+        <v>0.99988027760601794</v>
       </c>
       <c r="D114">
-        <v>0.2231678042083946</v>
+        <v>0.00010410238488288611</v>
       </c>
       <c r="E114">
-        <v>9.2172896988453456e-08</v>
+        <v>2.4522903893735683e-08</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2783,16 +2921,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.9982725693822172</v>
+        <v>0.91411716828263934</v>
       </c>
       <c r="C115">
-        <v>0.00012578079543434977</v>
+        <v>0.054286395348603696</v>
       </c>
       <c r="D115">
-        <v>0.0016016497128621403</v>
+        <v>0.031595845870734322</v>
       </c>
       <c r="E115">
-        <v>1.0948651747332901e-10</v>
+        <v>5.9049802261811247e-07</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -2803,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.99996707502575854</v>
+        <v>0.85491873728989809</v>
       </c>
       <c r="C116">
-        <v>3.282455914372215e-05</v>
+        <v>0.027594925208374688</v>
       </c>
       <c r="D116">
-        <v>1.0040887546645924e-07</v>
+        <v>0.11748522827101485</v>
       </c>
       <c r="E116">
-        <v>6.2223771638718855e-12</v>
+        <v>1.1092307122785607e-06</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2823,16 +2961,16 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.99991604011757196</v>
+        <v>0.91644356631821766</v>
       </c>
       <c r="C117">
-        <v>8.392124898076504e-05</v>
+        <v>0.018557587214945267</v>
       </c>
       <c r="D117">
-        <v>3.8615397511965834e-08</v>
+        <v>0.064997540399169149</v>
       </c>
       <c r="E117">
-        <v>1.8049557924945016e-11</v>
+        <v>1.3060676680537962e-06</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2843,16 +2981,16 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.99999097598629572</v>
+        <v>0.80233268507981936</v>
       </c>
       <c r="C118">
-        <v>8.9571779756680666e-06</v>
+        <v>0.10308662373974323</v>
       </c>
       <c r="D118">
-        <v>6.6718622327769148e-08</v>
+        <v>0.094577252192072664</v>
       </c>
       <c r="E118">
-        <v>1.171063870712983e-10</v>
+        <v>3.4389883647974355e-06</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -2863,19 +3001,19 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.99923544767895245</v>
+        <v>0.0010503568681812046</v>
       </c>
       <c r="C119">
-        <v>0.00010259735021338521</v>
+        <v>0.99893269761617198</v>
       </c>
       <c r="D119">
-        <v>0.00066195469734781456</v>
+        <v>1.6931479387015254e-05</v>
       </c>
       <c r="E119">
-        <v>2.7348645040965366e-10</v>
+        <v>1.403625990581913e-08</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2883,16 +3021,16 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.99998974292902165</v>
+        <v>0.95175034805889114</v>
       </c>
       <c r="C120">
-        <v>1.0218065828542334e-05</v>
+        <v>0.0042835431334805</v>
       </c>
       <c r="D120">
-        <v>3.8938424752679754e-08</v>
+        <v>0.043965562128380355</v>
       </c>
       <c r="E120">
-        <v>6.6725093651672419e-11</v>
+        <v>5.4667924806681279e-07</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -2903,16 +3041,16 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.99939473320175432</v>
+        <v>0.99973563957871703</v>
       </c>
       <c r="C121">
-        <v>7.4303197465640393e-05</v>
+        <v>0.00026425827049032156</v>
       </c>
       <c r="D121">
-        <v>0.00053096350519329569</v>
+        <v>1.0210802825939336e-07</v>
       </c>
       <c r="E121">
-        <v>9.5586550836396453e-11</v>
+        <v>4.2764573658699399e-11</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -2923,16 +3061,16 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.86898835317916556</v>
+        <v>0.99760337720022807</v>
       </c>
       <c r="C122">
-        <v>0.0031781609038200108</v>
+        <v>0.00095188278588733864</v>
       </c>
       <c r="D122">
-        <v>0.12783335735829807</v>
+        <v>0.0014447400007966335</v>
       </c>
       <c r="E122">
-        <v>1.285587162202795e-07</v>
+        <v>1.3088079405216323e-11</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -2943,16 +3081,16 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.99772637695714417</v>
+        <v>0.99894470088530085</v>
       </c>
       <c r="C123">
-        <v>0.00022775242276423829</v>
+        <v>2.6371195851021584e-05</v>
       </c>
       <c r="D123">
-        <v>0.0020458706023058102</v>
+        <v>0.0010289279165979518</v>
       </c>
       <c r="E123">
-        <v>1.7785842754448141e-11</v>
+        <v>2.2501144594797844e-12</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2963,16 +3101,16 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.99822017846052047</v>
+        <v>0.99964897689739929</v>
       </c>
       <c r="C124">
-        <v>5.6067634047306463e-05</v>
+        <v>1.0020144134284241e-05</v>
       </c>
       <c r="D124">
-        <v>0.0017237538745253707</v>
+        <v>0.00034100295521622526</v>
       </c>
       <c r="E124">
-        <v>3.0906706709208945e-11</v>
+        <v>3.2502744618540032e-12</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2983,19 +3121,19 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1.4030514679877736e-08</v>
+        <v>0.99907020503161925</v>
       </c>
       <c r="C125">
-        <v>0.99969430937616344</v>
+        <v>5.1889305705381749e-05</v>
       </c>
       <c r="D125">
-        <v>0.00030567500441048287</v>
+        <v>0.00087790565160545027</v>
       </c>
       <c r="E125">
-        <v>1.5889113174919416e-09</v>
+        <v>1.106999168309412e-11</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -3003,16 +3141,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.99994177906882131</v>
+        <v>0.99621737924398646</v>
       </c>
       <c r="C126">
-        <v>2.0992643378971737e-05</v>
+        <v>2.5395340899028719e-05</v>
       </c>
       <c r="D126">
-        <v>3.7228286291166965e-05</v>
+        <v>0.0037572246993394847</v>
       </c>
       <c r="E126">
-        <v>1.5086195407198034e-12</v>
+        <v>7.157750433236448e-10</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -3023,16 +3161,16 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.9987068660645182</v>
+        <v>0.99952679778627851</v>
       </c>
       <c r="C127">
-        <v>0.00011345776506144957</v>
+        <v>0.00043760583164914981</v>
       </c>
       <c r="D127">
-        <v>0.0011796598152950569</v>
+        <v>3.5596341257069487e-05</v>
       </c>
       <c r="E127">
-        <v>1.6355125383781678e-08</v>
+        <v>4.0815335933364072e-11</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -3043,16 +3181,16 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.99949260702156517</v>
+        <v>0.99917986044378293</v>
       </c>
       <c r="C128">
-        <v>6.8370206841069484e-05</v>
+        <v>1.4491334806676111e-05</v>
       </c>
       <c r="D128">
-        <v>0.00043901578657807596</v>
+        <v>0.00080564822049343694</v>
       </c>
       <c r="E128">
-        <v>6.9850158419007903e-09</v>
+        <v>9.1699446359154284e-13</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -3063,16 +3201,16 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.87845094815814628</v>
+        <v>0.99562713580132944</v>
       </c>
       <c r="C129">
-        <v>0.11470391169876318</v>
+        <v>0.0034453866518953614</v>
       </c>
       <c r="D129">
-        <v>0.0068451396220142648</v>
+        <v>0.0009274775414640701</v>
       </c>
       <c r="E129">
-        <v>5.2107622259513549e-10</v>
+        <v>5.3110014769304662e-12</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -3083,16 +3221,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.50253269184408156</v>
+        <v>0.99876480191890826</v>
       </c>
       <c r="C130">
-        <v>0.36656384005460746</v>
+        <v>2.0772051073701109e-05</v>
       </c>
       <c r="D130">
-        <v>0.13090346762860403</v>
+        <v>0.0012144259387818232</v>
       </c>
       <c r="E130">
-        <v>4.7270695461287843e-10</v>
+        <v>9.1236005424642267e-11</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -3103,16 +3241,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.61156286017774897</v>
+        <v>0.99374885065849994</v>
       </c>
       <c r="C131">
-        <v>0.2916089188294001</v>
+        <v>0.0031269624732898063</v>
       </c>
       <c r="D131">
-        <v>0.096828215602358714</v>
+        <v>0.0031241868637328766</v>
       </c>
       <c r="E131">
-        <v>5.3904924296392507e-09</v>
+        <v>4.4773429874263883e-12</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -3123,16 +3261,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.74079440544740627</v>
+        <v>0.99103603179203215</v>
       </c>
       <c r="C132">
-        <v>0.23729267835035658</v>
+        <v>0.0042106961451865849</v>
       </c>
       <c r="D132">
-        <v>0.021912915943661491</v>
+        <v>0.0047532719204413905</v>
       </c>
       <c r="E132">
-        <v>2.5857562311689868e-10</v>
+        <v>1.4233989457413983e-10</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -3143,16 +3281,16 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.8619723716418648</v>
+        <v>0.99463582551577223</v>
       </c>
       <c r="C133">
-        <v>0.077166156658914603</v>
+        <v>0.00016639566992191176</v>
       </c>
       <c r="D133">
-        <v>0.060861469691779732</v>
+        <v>0.0051977788023039083</v>
       </c>
       <c r="E133">
-        <v>2.0074408756922936e-09</v>
+        <v>1.2002075499921453e-11</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -3163,16 +3301,16 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.56644439664269097</v>
+        <v>0.99983372089307965</v>
       </c>
       <c r="C134">
-        <v>0.22426935905057543</v>
+        <v>2.9864547804850578e-05</v>
       </c>
       <c r="D134">
-        <v>0.20928593610592103</v>
+        <v>0.00013641455438895766</v>
       </c>
       <c r="E134">
-        <v>3.0820081258384901e-07</v>
+        <v>4.726484099885344e-12</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -3183,16 +3321,16 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.68741235383408128</v>
+        <v>0.99928747182061517</v>
       </c>
       <c r="C135">
-        <v>0.20806927972207084</v>
+        <v>3.0828439104365055e-05</v>
       </c>
       <c r="D135">
-        <v>0.10451822815650177</v>
+        <v>0.0006816997382799127</v>
       </c>
       <c r="E135">
-        <v>1.3828734601813377e-07</v>
+        <v>2.0006110101469923e-12</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -3203,16 +3341,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.99858960838285138</v>
+        <v>0.99783560164263496</v>
       </c>
       <c r="C136">
-        <v>1.5689292998637337e-05</v>
+        <v>6.9182698941818826e-05</v>
       </c>
       <c r="D136">
-        <v>0.0013947017596733489</v>
+        <v>0.0020952156355430545</v>
       </c>
       <c r="E136">
-        <v>5.6447661556935691e-10</v>
+        <v>2.2880133743129713e-11</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -3223,18 +3361,938 @@
         <v>136</v>
       </c>
       <c r="B137">
+        <v>0.99998563024312981</v>
+      </c>
+      <c r="C137">
+        <v>4.2540860981850875e-06</v>
+      </c>
+      <c r="D137">
+        <v>1.0115667765508511e-05</v>
+      </c>
+      <c r="E137">
+        <v>3.0064559477017915e-12</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.99974507768854182</v>
+      </c>
+      <c r="C138">
+        <v>5.5392920417859822e-05</v>
+      </c>
+      <c r="D138">
+        <v>0.00019952938856452872</v>
+      </c>
+      <c r="E138">
+        <v>2.4759773949746514e-12</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.99957906685761866</v>
+      </c>
+      <c r="C139">
+        <v>5.1204001615521606e-05</v>
+      </c>
+      <c r="D139">
+        <v>0.00036972863618341193</v>
+      </c>
+      <c r="E139">
+        <v>5.0458230423990897e-10</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.99958288514941684</v>
+      </c>
+      <c r="C140">
+        <v>9.0261710599433837e-05</v>
+      </c>
+      <c r="D140">
+        <v>0.0003268531346895258</v>
+      </c>
+      <c r="E140">
+        <v>5.2942771769040816e-12</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.99961396971386274</v>
+      </c>
+      <c r="C141">
+        <v>0.00020007967335862299</v>
+      </c>
+      <c r="D141">
+        <v>0.00018595055395182248</v>
+      </c>
+      <c r="E141">
+        <v>5.8826853700795329e-11</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.99967732235384288</v>
+      </c>
+      <c r="C142">
+        <v>0.00011220502814557916</v>
+      </c>
+      <c r="D142">
+        <v>0.00021047261499494133</v>
+      </c>
+      <c r="E142">
+        <v>3.016454185994035e-12</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.9946816599487408</v>
+      </c>
+      <c r="C143">
+        <v>0.0023261790761215212</v>
+      </c>
+      <c r="D143">
+        <v>0.0029921608094153037</v>
+      </c>
+      <c r="E143">
+        <v>1.6572237719985942e-10</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.93671941566720773</v>
+      </c>
+      <c r="C144">
+        <v>0.017630987340300556</v>
+      </c>
+      <c r="D144">
+        <v>0.045649313781214007</v>
+      </c>
+      <c r="E144">
+        <v>2.8321127771004509e-07</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.76535539713897849</v>
+      </c>
+      <c r="C145">
+        <v>0.12406037070344363</v>
+      </c>
+      <c r="D145">
+        <v>0.11058079340610355</v>
+      </c>
+      <c r="E145">
+        <v>3.4387514742203361e-06</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.99985041277565834</v>
+      </c>
+      <c r="C146">
+        <v>2.658554479523021e-05</v>
+      </c>
+      <c r="D146">
+        <v>0.00012300167822890229</v>
+      </c>
+      <c r="E146">
+        <v>1.3176336264958275e-12</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.99677646842891721</v>
+      </c>
+      <c r="C147">
+        <v>0.00023597737448090804</v>
+      </c>
+      <c r="D147">
+        <v>0.0029875541699677945</v>
+      </c>
+      <c r="E147">
+        <v>2.663397007701701e-11</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.99998586937697531</v>
+      </c>
+      <c r="C148">
+        <v>3.9128738719281244e-07</v>
+      </c>
+      <c r="D148">
+        <v>1.3739333710818214e-05</v>
+      </c>
+      <c r="E148">
+        <v>1.9267491098032599e-12</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.99912541481687311</v>
+      </c>
+      <c r="C149">
+        <v>0.0002475472706226979</v>
+      </c>
+      <c r="D149">
+        <v>0.00062703789072249294</v>
+      </c>
+      <c r="E149">
+        <v>2.1781579881853572e-11</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.99943257982210909</v>
+      </c>
+      <c r="C150">
+        <v>0.00030782100969373681</v>
+      </c>
+      <c r="D150">
+        <v>0.00025959905208233899</v>
+      </c>
+      <c r="E150">
+        <v>1.1611480939872032e-10</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.99994721602873438</v>
+      </c>
+      <c r="C151">
+        <v>1.8184669947746233e-05</v>
+      </c>
+      <c r="D151">
+        <v>3.4599300762157806e-05</v>
+      </c>
+      <c r="E151">
+        <v>5.5577353193141536e-13</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.29826253289415622</v>
+      </c>
+      <c r="C152">
+        <v>0.47856957072455225</v>
+      </c>
+      <c r="D152">
+        <v>0.2231678042083946</v>
+      </c>
+      <c r="E152">
+        <v>9.2172896988453456e-08</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.9982725693822172</v>
+      </c>
+      <c r="C153">
+        <v>0.00012578079543434977</v>
+      </c>
+      <c r="D153">
+        <v>0.0016016497128621403</v>
+      </c>
+      <c r="E153">
+        <v>1.0948651747332901e-10</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.99996707502575854</v>
+      </c>
+      <c r="C154">
+        <v>3.282455914372215e-05</v>
+      </c>
+      <c r="D154">
+        <v>1.0040887546645924e-07</v>
+      </c>
+      <c r="E154">
+        <v>6.2223771638718855e-12</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.99991604011757196</v>
+      </c>
+      <c r="C155">
+        <v>8.392124898076504e-05</v>
+      </c>
+      <c r="D155">
+        <v>3.8615397511965834e-08</v>
+      </c>
+      <c r="E155">
+        <v>1.8049557924945016e-11</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.99999097598629572</v>
+      </c>
+      <c r="C156">
+        <v>8.9571779756680666e-06</v>
+      </c>
+      <c r="D156">
+        <v>6.6718622327769148e-08</v>
+      </c>
+      <c r="E156">
+        <v>1.171063870712983e-10</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.99923544767895245</v>
+      </c>
+      <c r="C157">
+        <v>0.00010259735021338521</v>
+      </c>
+      <c r="D157">
+        <v>0.00066195469734781456</v>
+      </c>
+      <c r="E157">
+        <v>2.7348645040965366e-10</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.99998974292902165</v>
+      </c>
+      <c r="C158">
+        <v>1.0218065828542334e-05</v>
+      </c>
+      <c r="D158">
+        <v>3.8938424752679754e-08</v>
+      </c>
+      <c r="E158">
+        <v>6.6725093651672419e-11</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.99996004238601433</v>
+      </c>
+      <c r="C159">
+        <v>3.6298370689997761e-08</v>
+      </c>
+      <c r="D159">
+        <v>3.9921311879157312e-05</v>
+      </c>
+      <c r="E159">
+        <v>3.7358103501869014e-12</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.99939473320175432</v>
+      </c>
+      <c r="C160">
+        <v>7.4303197465640393e-05</v>
+      </c>
+      <c r="D160">
+        <v>0.00053096350519329569</v>
+      </c>
+      <c r="E160">
+        <v>9.5586550836396453e-11</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.86898835317916556</v>
+      </c>
+      <c r="C161">
+        <v>0.0031781609038200108</v>
+      </c>
+      <c r="D161">
+        <v>0.12783335735829807</v>
+      </c>
+      <c r="E161">
+        <v>1.285587162202795e-07</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.99999912100619359</v>
+      </c>
+      <c r="C162">
+        <v>1.0139308551662652e-09</v>
+      </c>
+      <c r="D162">
+        <v>8.774560202635851e-07</v>
+      </c>
+      <c r="E162">
+        <v>5.2385528444512463e-10</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.99912970008733248</v>
+      </c>
+      <c r="C163">
+        <v>0.00020457617898083741</v>
+      </c>
+      <c r="D163">
+        <v>0.00066572372533954191</v>
+      </c>
+      <c r="E163">
+        <v>8.3471026694204561e-12</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.99856409405645097</v>
+      </c>
+      <c r="C164">
+        <v>0.00018455607117811337</v>
+      </c>
+      <c r="D164">
+        <v>0.0012513498433556641</v>
+      </c>
+      <c r="E164">
+        <v>2.9015261652935448e-11</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.99772637695714417</v>
+      </c>
+      <c r="C165">
+        <v>0.00022775242276423829</v>
+      </c>
+      <c r="D165">
+        <v>0.0020458706023058102</v>
+      </c>
+      <c r="E165">
+        <v>1.7785842754448141e-11</v>
+      </c>
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.99822017846052047</v>
+      </c>
+      <c r="C166">
+        <v>5.6067634047306463e-05</v>
+      </c>
+      <c r="D166">
+        <v>0.0017237538745253707</v>
+      </c>
+      <c r="E166">
+        <v>3.0906706709208945e-11</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.99601015659597891</v>
+      </c>
+      <c r="C167">
+        <v>0.0027254835186977136</v>
+      </c>
+      <c r="D167">
+        <v>0.0012643598561034347</v>
+      </c>
+      <c r="E167">
+        <v>2.9219929381105878e-11</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>1.4030514679877736e-08</v>
+      </c>
+      <c r="C168">
+        <v>0.99969430937616344</v>
+      </c>
+      <c r="D168">
+        <v>0.00030567500441048287</v>
+      </c>
+      <c r="E168">
+        <v>1.5889113174919416e-09</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.99979488367460612</v>
+      </c>
+      <c r="C169">
+        <v>0.0001658665456941751</v>
+      </c>
+      <c r="D169">
+        <v>3.924965953418027e-05</v>
+      </c>
+      <c r="E169">
+        <v>1.2016534105473597e-10</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.99994177906882131</v>
+      </c>
+      <c r="C170">
+        <v>2.0992643378971737e-05</v>
+      </c>
+      <c r="D170">
+        <v>3.7228286291166965e-05</v>
+      </c>
+      <c r="E170">
+        <v>1.5086195407198034e-12</v>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.9987068660645182</v>
+      </c>
+      <c r="C171">
+        <v>0.00011345776506144957</v>
+      </c>
+      <c r="D171">
+        <v>0.0011796598152950569</v>
+      </c>
+      <c r="E171">
+        <v>1.6355125383781678e-08</v>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.99949260702156517</v>
+      </c>
+      <c r="C172">
+        <v>6.8370206841069484e-05</v>
+      </c>
+      <c r="D172">
+        <v>0.00043901578657807596</v>
+      </c>
+      <c r="E172">
+        <v>6.9850158419007903e-09</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.87845094815814628</v>
+      </c>
+      <c r="C173">
+        <v>0.11470391169876318</v>
+      </c>
+      <c r="D173">
+        <v>0.0068451396220142648</v>
+      </c>
+      <c r="E173">
+        <v>5.2107622259513549e-10</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>0.50253269184408156</v>
+      </c>
+      <c r="C174">
+        <v>0.36656384005460746</v>
+      </c>
+      <c r="D174">
+        <v>0.13090346762860403</v>
+      </c>
+      <c r="E174">
+        <v>4.7270695461287843e-10</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>0.61156286017774897</v>
+      </c>
+      <c r="C175">
+        <v>0.2916089188294001</v>
+      </c>
+      <c r="D175">
+        <v>0.096828215602358714</v>
+      </c>
+      <c r="E175">
+        <v>5.3904924296392507e-09</v>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>0.74079440544740627</v>
+      </c>
+      <c r="C176">
+        <v>0.23729267835035658</v>
+      </c>
+      <c r="D176">
+        <v>0.021912915943661491</v>
+      </c>
+      <c r="E176">
+        <v>2.5857562311689868e-10</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0.8619723716418648</v>
+      </c>
+      <c r="C177">
+        <v>0.077166156658914603</v>
+      </c>
+      <c r="D177">
+        <v>0.060861469691779732</v>
+      </c>
+      <c r="E177">
+        <v>2.0074408756922936e-09</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>0.00023025517602257573</v>
+      </c>
+      <c r="C178">
+        <v>0.99974871838679547</v>
+      </c>
+      <c r="D178">
+        <v>2.1023509492599343e-05</v>
+      </c>
+      <c r="E178">
+        <v>2.9276894070417162e-09</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>5.5082663850700945e-05</v>
+      </c>
+      <c r="C179">
+        <v>0.99991584505065678</v>
+      </c>
+      <c r="D179">
+        <v>2.9064316715757392e-05</v>
+      </c>
+      <c r="E179">
+        <v>7.9687768478475926e-09</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0.56644439664269097</v>
+      </c>
+      <c r="C180">
+        <v>0.22426935905057543</v>
+      </c>
+      <c r="D180">
+        <v>0.20928593610592103</v>
+      </c>
+      <c r="E180">
+        <v>3.0820081258384901e-07</v>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>0.68741235383408128</v>
+      </c>
+      <c r="C181">
+        <v>0.20806927972207084</v>
+      </c>
+      <c r="D181">
+        <v>0.10451822815650177</v>
+      </c>
+      <c r="E181">
+        <v>1.3828734601813377e-07</v>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>0.99858960838285138</v>
+      </c>
+      <c r="C182">
+        <v>1.5689292998637337e-05</v>
+      </c>
+      <c r="D182">
+        <v>0.0013947017596733489</v>
+      </c>
+      <c r="E182">
+        <v>5.6447661556935691e-10</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
         <v>0.99735753481374523</v>
       </c>
-      <c r="C137">
+      <c r="C183">
         <v>2.3889065081101743e-05</v>
       </c>
-      <c r="D137">
+      <c r="D183">
         <v>0.0026185755203707094</v>
       </c>
-      <c r="E137">
+      <c r="E183">
         <v>6.0080292360798886e-10</v>
       </c>
-      <c r="F137">
+      <c r="F183">
         <v>1</v>
       </c>
     </row>
